--- a/Papers.xlsx
+++ b/Papers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiankai/Documents/UWaterloo/SYDE644/Literature Review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiankai/Documents/UWaterloo/SYDE644/SYDE644-Literature-Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA36F88-5E02-BC42-A72D-EFD7CDF63DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858AFD5-349E-C747-BD5F-D3ED834D16B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{83CC94F4-9313-8E46-9951-0B1C095FD9C9}"/>
   </bookViews>
@@ -351,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -385,6 +391,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5A9CDE-8790-C348-8913-5EE9D0C0064C}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,7 +765,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B5" t="s">
@@ -786,7 +793,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B7" t="s">
@@ -941,7 +948,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B20" t="s">
@@ -1075,7 +1082,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B30" t="s">
@@ -1089,7 +1096,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B31" t="s">

--- a/Papers.xlsx
+++ b/Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiankai/Documents/UWaterloo/SYDE644/SYDE644-Literature-Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858AFD5-349E-C747-BD5F-D3ED834D16B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297ACE96-6A06-F549-A530-4BD4101B7D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{83CC94F4-9313-8E46-9951-0B1C095FD9C9}"/>
   </bookViews>
@@ -351,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,12 +361,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -391,7 +385,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5A9CDE-8790-C348-8913-5EE9D0C0064C}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A31" activeCellId="1" sqref="A30 A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,7 +758,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B5" t="s">
@@ -793,7 +786,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B7" t="s">
@@ -948,7 +941,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B20" t="s">
@@ -1082,7 +1075,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B30" t="s">
@@ -1096,7 +1089,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B31" t="s">

--- a/Papers.xlsx
+++ b/Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiankai/Documents/UWaterloo/SYDE644/SYDE644-Literature-Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297ACE96-6A06-F549-A530-4BD4101B7D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616AE7A4-86F0-3440-8A31-0D55F59ED752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{83CC94F4-9313-8E46-9951-0B1C095FD9C9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="176">
   <si>
     <t>Touch Behavior with Different Postures on Soft Smartphone Keyboards</t>
   </si>
@@ -328,13 +328,245 @@
   </si>
   <si>
     <t xml:space="preserve">new keyboard </t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Phrase</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Error Rate</t>
+  </si>
+  <si>
+    <t>Workload</t>
+  </si>
+  <si>
+    <t>Learnability</t>
+  </si>
+  <si>
+    <t>phrase set designed by MacKenzie and Soukoreff</t>
+  </si>
+  <si>
+    <t>between-subjects</t>
+  </si>
+  <si>
+    <t>32, all have experience on touch screen</t>
+  </si>
+  <si>
+    <t>WPM</t>
+  </si>
+  <si>
+    <t>a touch that lies outside of the visual boundary of its target key is considered an error</t>
+  </si>
+  <si>
+    <t>14,  who had no prior experience with mini-QWERTY keyboard, expert users</t>
+  </si>
+  <si>
+    <t>MacKenzie and Soukoreff</t>
+  </si>
+  <si>
+    <t>twenty 20–minute typing session, total 400mins</t>
+  </si>
+  <si>
+    <t>20 skilled touch typist regularly used a rectangular physical keyboard</t>
+  </si>
+  <si>
+    <t>MacKenzie</t>
+  </si>
+  <si>
+    <t>Touch Points</t>
+  </si>
+  <si>
+    <t>Vertical, horizontal offsets</t>
+  </si>
+  <si>
+    <t>Keystrokes Per Character</t>
+  </si>
+  <si>
+    <t>9, from 21 -40, familiar with the QWERTY layout</t>
+  </si>
+  <si>
+    <t>KeystrokeErrorRate, MSDErrorRate</t>
+  </si>
+  <si>
+    <t>MacKenzie and Soukoreff’s</t>
+  </si>
+  <si>
+    <t>12, 18-38, familiar with QWERTY, need expertise</t>
+  </si>
+  <si>
+    <t>NASA TLX</t>
+  </si>
+  <si>
+    <t>average time taken to enter a phrase</t>
+  </si>
+  <si>
+    <t>Keystrokes Per Character, Average percentage of phrases entered correctly</t>
+  </si>
+  <si>
+    <t>WPM of correct words</t>
+  </si>
+  <si>
+    <t>a lexicon containing around 57,000 words</t>
+  </si>
+  <si>
+    <t>custom error count</t>
+  </si>
+  <si>
+    <t>13 participants</t>
+  </si>
+  <si>
+    <t>within-subjects</t>
+  </si>
+  <si>
+    <t>mean number of key presses per character entered</t>
+  </si>
+  <si>
+    <t>subjective rating</t>
+  </si>
+  <si>
+    <t>practice session</t>
+  </si>
+  <si>
+    <t>randomly selected from 70, tested for its correlation with common English using the frequency counts in Mayzner and Tresselt’s corpus</t>
+  </si>
+  <si>
+    <t>An error was recorded when the user-entered character differed from the given character.</t>
+  </si>
+  <si>
+    <t>4 hour practice</t>
+  </si>
+  <si>
+    <t>16 right-handed</t>
+  </si>
+  <si>
+    <t>40 min practice</t>
+  </si>
+  <si>
+    <t>within and between</t>
+  </si>
+  <si>
+    <t>18, 12, familiar with QWERTY</t>
+  </si>
+  <si>
+    <t>word error rate</t>
+  </si>
+  <si>
+    <t>12, familiar with QWERTY</t>
+  </si>
+  <si>
+    <t>uncorrected error rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NASA TLX, subjective rating</t>
+  </si>
+  <si>
+    <t>mean total error rate</t>
+  </si>
+  <si>
+    <t>character error rate, keystrokes per character</t>
+  </si>
+  <si>
+    <t>10, familiar with QWERTY</t>
+  </si>
+  <si>
+    <t>total error rate</t>
+  </si>
+  <si>
+    <t>minimum string distance</t>
+  </si>
+  <si>
+    <t>10 sessions</t>
+  </si>
+  <si>
+    <t>MacKenzie and Soukoreff 150</t>
+  </si>
+  <si>
+    <t>16 sessions</t>
+  </si>
+  <si>
+    <t>Minimum Word Distance</t>
+  </si>
+  <si>
+    <t>heatmap</t>
+  </si>
+  <si>
+    <t>learning curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email sentences with 1–12 words from the W3C email corpus and the non-spam messages in the TREC 2005 corpus </t>
+  </si>
+  <si>
+    <t>character error rate</t>
+  </si>
+  <si>
+    <t>corrected error rate, uncorrected error rate</t>
+  </si>
+  <si>
+    <t>CPM, initial entry time per word</t>
+  </si>
+  <si>
+    <t>error rate(not specified)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interlaced QWERTY - accommodating ease of visual search and input flexibility in shape writing</t>
+  </si>
+  <si>
+    <t>repeated measures between-subjects factorial design</t>
+  </si>
+  <si>
+    <t>12 single four letter words</t>
+  </si>
+  <si>
+    <t>soft error rate, hard error rate</t>
+  </si>
+  <si>
+    <t>WPM, character entry time</t>
+  </si>
+  <si>
+    <t>2 hours training</t>
+  </si>
+  <si>
+    <t>24, english speaking</t>
+  </si>
+  <si>
+    <t>total error rate, uncorrected error rate</t>
+  </si>
+  <si>
+    <t>UK-English dictionary</t>
+  </si>
+  <si>
+    <t>WPM, phrase completion time</t>
+  </si>
+  <si>
+    <t>4 session two days, 4 trials</t>
+  </si>
+  <si>
+    <t>mean edit distance</t>
+  </si>
+  <si>
+    <t>subjective measure</t>
+  </si>
+  <si>
+    <t>mixed-factorial design</t>
+  </si>
+  <si>
+    <t>Character Error Rate, Word Error Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -348,6 +580,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -699,21 +938,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5A9CDE-8790-C348-8913-5EE9D0C0064C}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A31" activeCellId="1" sqref="A30 A31"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="104.1640625" customWidth="1"/>
     <col min="3" max="3" width="73.6640625" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="75" customWidth="1"/>
+    <col min="7" max="7" width="111.33203125" customWidth="1"/>
+    <col min="8" max="8" width="43" customWidth="1"/>
+    <col min="9" max="9" width="77.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="44.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>80</v>
       </c>
@@ -723,8 +970,32 @@
       <c r="D1" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>89</v>
       </c>
@@ -737,8 +1008,23 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -748,8 +1034,20 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -757,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
@@ -771,7 +1069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>90</v>
       </c>
@@ -784,8 +1082,23 @@
       <c r="D6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>96</v>
       </c>
@@ -798,8 +1111,17 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
@@ -812,8 +1134,23 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -823,8 +1160,20 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>91</v>
       </c>
@@ -837,8 +1186,23 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -846,7 +1210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>89</v>
       </c>
@@ -859,8 +1223,11 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>92</v>
       </c>
@@ -873,8 +1240,23 @@
       <c r="D13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -882,7 +1264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
@@ -895,8 +1277,11 @@
       <c r="D15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>88</v>
       </c>
@@ -909,8 +1294,11 @@
       <c r="D16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>90</v>
       </c>
@@ -923,8 +1311,29 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -932,7 +1341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -940,7 +1349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>96</v>
       </c>
@@ -953,8 +1362,23 @@
       <c r="D20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>89</v>
       </c>
@@ -967,8 +1391,20 @@
       <c r="D21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
@@ -981,8 +1417,20 @@
       <c r="D22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
@@ -995,8 +1443,11 @@
       <c r="D23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>93</v>
       </c>
@@ -1009,8 +1460,20 @@
       <c r="D24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>92</v>
       </c>
@@ -1023,8 +1486,26 @@
       <c r="D25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>53</v>
       </c>
@@ -1034,8 +1515,29 @@
       <c r="D26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -1048,8 +1550,17 @@
       <c r="D27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" t="s">
+        <v>153</v>
+      </c>
+      <c r="L27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -1060,7 +1571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>93</v>
       </c>
@@ -1073,8 +1584,17 @@
       <c r="D29" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>96</v>
       </c>
@@ -1087,8 +1607,26 @@
       <c r="D30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30">
+        <v>45</v>
+      </c>
+      <c r="G30" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" t="s">
+        <v>157</v>
+      </c>
+      <c r="J30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>96</v>
       </c>
@@ -1101,8 +1639,17 @@
       <c r="D31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>157</v>
+      </c>
+      <c r="L31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>71</v>
       </c>
@@ -1112,8 +1659,11 @@
       <c r="D32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>92</v>
       </c>
@@ -1126,8 +1676,20 @@
       <c r="D33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
         <v>73</v>
@@ -1136,7 +1698,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>95</v>
       </c>
@@ -1149,8 +1711,26 @@
       <c r="D35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" t="s">
+        <v>165</v>
+      </c>
+      <c r="I35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
@@ -1163,8 +1743,20 @@
       <c r="D36" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
@@ -1177,8 +1769,20 @@
       <c r="D37" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" t="s">
+        <v>170</v>
+      </c>
+      <c r="J37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>79</v>
       </c>
@@ -1186,7 +1790,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" t="s">
         <v>83</v>
@@ -1197,8 +1801,14 @@
       <c r="D39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
@@ -1211,8 +1821,20 @@
       <c r="D40" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" t="s">
+        <v>172</v>
+      </c>
+      <c r="K40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>88</v>
       </c>
@@ -1225,8 +1847,26 @@
       <c r="D41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41" t="s">
+        <v>158</v>
+      </c>
+      <c r="J41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>88</v>
       </c>
@@ -1241,7 +1881,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Papers.xlsx
+++ b/Papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiankai/Documents/UWaterloo/SYDE644/SYDE644-Literature-Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616AE7A4-86F0-3440-8A31-0D55F59ED752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F2DCBC-0A44-7241-8CB9-DECC50656022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{83CC94F4-9313-8E46-9951-0B1C095FD9C9}"/>
+    <workbookView xWindow="1100" yWindow="0" windowWidth="27700" windowHeight="18000" xr2:uid="{83CC94F4-9313-8E46-9951-0B1C095FD9C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="177">
   <si>
     <t>Touch Behavior with Different Postures on Soft Smartphone Keyboards</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>Character Error Rate, Word Error Rate</t>
+  </si>
+  <si>
+    <t>Minimum String Distance</t>
   </si>
 </sst>
 </file>
@@ -940,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5A9CDE-8790-C348-8913-5EE9D0C0064C}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,6 +1246,9 @@
       <c r="E13" t="s">
         <v>130</v>
       </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
       <c r="G13" t="s">
         <v>134</v>
       </c>
@@ -1340,6 +1346,9 @@
       <c r="C18" t="s">
         <v>35</v>
       </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
@@ -1678,6 +1687,9 @@
       </c>
       <c r="E33" t="s">
         <v>130</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
       </c>
       <c r="G33" t="s">
         <v>161</v>

--- a/Papers.xlsx
+++ b/Papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiankai/Documents/UWaterloo/SYDE644/SYDE644-Literature-Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F2DCBC-0A44-7241-8CB9-DECC50656022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF7804D-C79E-BE44-8E2C-5E4C38EA24D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="0" windowWidth="27700" windowHeight="18000" xr2:uid="{83CC94F4-9313-8E46-9951-0B1C095FD9C9}"/>
+    <workbookView xWindow="1120" yWindow="0" windowWidth="27700" windowHeight="18000" xr2:uid="{83CC94F4-9313-8E46-9951-0B1C095FD9C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5A9CDE-8790-C348-8913-5EE9D0C0064C}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,6 +1206,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>20</v>
       </c>
